--- a/documentation/dataset/LIST_INSTRUCTORS.xlsx
+++ b/documentation/dataset/LIST_INSTRUCTORS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD445A3C-3ACA-4F44-B96D-B121E8682C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149A9816-A802-F242-AC50-837E6C8504D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="30320" windowHeight="27020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="395">
   <si>
     <t>Mã giảng viên</t>
   </si>
@@ -823,6 +823,396 @@
   </si>
   <si>
     <t>Mật khẩu</t>
+  </si>
+  <si>
+    <t>habqygfioe@yahoo.com</t>
+  </si>
+  <si>
+    <t>pxjiwfzcsf@example.com</t>
+  </si>
+  <si>
+    <t>dtmdedsvgm@outlook.com</t>
+  </si>
+  <si>
+    <t>ykdudphehh@example.com</t>
+  </si>
+  <si>
+    <t>lxdycipwgv@gmail.com</t>
+  </si>
+  <si>
+    <t>teacyerylp@yahoo.com</t>
+  </si>
+  <si>
+    <t>sklpcamjyx@gmail.com</t>
+  </si>
+  <si>
+    <t>evnydbznkw@example.com</t>
+  </si>
+  <si>
+    <t>jhhzdsjatk@outlook.com</t>
+  </si>
+  <si>
+    <t>qayqylnsfi@gmail.com</t>
+  </si>
+  <si>
+    <t>dkqyowsenz@example.com</t>
+  </si>
+  <si>
+    <t>yzcjuntbeo@yahoo.com</t>
+  </si>
+  <si>
+    <t>yzclmogqof@yahoo.com</t>
+  </si>
+  <si>
+    <t>knyccoaklc@example.com</t>
+  </si>
+  <si>
+    <t>stndnjmpwd@outlook.com</t>
+  </si>
+  <si>
+    <t>hxynfojbch@example.com</t>
+  </si>
+  <si>
+    <t>nkvhgxzhwg@gmail.com</t>
+  </si>
+  <si>
+    <t>exactqhbuy@outlook.com</t>
+  </si>
+  <si>
+    <t>wdsiszuvvj@gmail.com</t>
+  </si>
+  <si>
+    <t>vvggecarob@example.com</t>
+  </si>
+  <si>
+    <t>eklvofccro@yahoo.com</t>
+  </si>
+  <si>
+    <t>mfskknxzir@yahoo.com</t>
+  </si>
+  <si>
+    <t>rwarjqjrty@example.com</t>
+  </si>
+  <si>
+    <t>rixszuqhaa@gmail.com</t>
+  </si>
+  <si>
+    <t>uywqextjtn@yahoo.com</t>
+  </si>
+  <si>
+    <t>qjtpypvmbr@example.com</t>
+  </si>
+  <si>
+    <t>lsubllauep@gmail.com</t>
+  </si>
+  <si>
+    <t>zpzpowlvfa@outlook.com</t>
+  </si>
+  <si>
+    <t>qwwamtiuvc@example.com</t>
+  </si>
+  <si>
+    <t>tumycmixim@example.com</t>
+  </si>
+  <si>
+    <t>festtnxfce@gmail.com</t>
+  </si>
+  <si>
+    <t>jxgwfwkykl@gmail.com</t>
+  </si>
+  <si>
+    <t>hkpduxdbyr@gmail.com</t>
+  </si>
+  <si>
+    <t>btbbsvqfzq@example.com</t>
+  </si>
+  <si>
+    <t>sbgomeouqg@example.com</t>
+  </si>
+  <si>
+    <t>suiyvzajsz@yahoo.com</t>
+  </si>
+  <si>
+    <t>uuvfsnoqna@outlook.com</t>
+  </si>
+  <si>
+    <t>ezjdfrrkaf@outlook.com</t>
+  </si>
+  <si>
+    <t>jkjrmdvoei@example.com</t>
+  </si>
+  <si>
+    <t>lhsjglymss@yahoo.com</t>
+  </si>
+  <si>
+    <t>uqfwxvtomo@yahoo.com</t>
+  </si>
+  <si>
+    <t>gkufewvtdp@example.com</t>
+  </si>
+  <si>
+    <t>ppwneiukrx@gmail.com</t>
+  </si>
+  <si>
+    <t>cbvcmonxff@example.com</t>
+  </si>
+  <si>
+    <t>hntklvqkxh@example.com</t>
+  </si>
+  <si>
+    <t>ynmhfbumzj@example.com</t>
+  </si>
+  <si>
+    <t>pnzstrfedk@outlook.com</t>
+  </si>
+  <si>
+    <t>yfwkwktgma@yahoo.com</t>
+  </si>
+  <si>
+    <t>uowzkqzhnp@yahoo.com</t>
+  </si>
+  <si>
+    <t>zbvanjcksr@gmail.com</t>
+  </si>
+  <si>
+    <t>uedurdbhln@yahoo.com</t>
+  </si>
+  <si>
+    <t>pduunhvlgl@yahoo.com</t>
+  </si>
+  <si>
+    <t>hfbtntbhax@example.com</t>
+  </si>
+  <si>
+    <t>hsqcxleyqr@gmail.com</t>
+  </si>
+  <si>
+    <t>njjbgmihtv@gmail.com</t>
+  </si>
+  <si>
+    <t>jnypdieqge@example.com</t>
+  </si>
+  <si>
+    <t>pvtrouhwtk@gmail.com</t>
+  </si>
+  <si>
+    <t>duxrgowktd@yahoo.com</t>
+  </si>
+  <si>
+    <t>izkuanqsjt@outlook.com</t>
+  </si>
+  <si>
+    <t>efkhjghimv@outlook.com</t>
+  </si>
+  <si>
+    <t>bzybnhogio@outlook.com</t>
+  </si>
+  <si>
+    <t>eqcuccxdgs@gmail.com</t>
+  </si>
+  <si>
+    <t>vrwskjjefy@outlook.com</t>
+  </si>
+  <si>
+    <t>bfukrplyaf@outlook.com</t>
+  </si>
+  <si>
+    <t>snzdwqdzcn@gmail.com</t>
+  </si>
+  <si>
+    <t>rcibjsoqsm@example.com</t>
+  </si>
+  <si>
+    <t>akectzqsik@outlook.com</t>
+  </si>
+  <si>
+    <t>ansahlmmix@yahoo.com</t>
+  </si>
+  <si>
+    <t>yadbdhlzij@example.com</t>
+  </si>
+  <si>
+    <t>foubtwwchf@outlook.com</t>
+  </si>
+  <si>
+    <t>beepoipack@yahoo.com</t>
+  </si>
+  <si>
+    <t>vttefuwjsp@yahoo.com</t>
+  </si>
+  <si>
+    <t>hujuvaoohz@gmail.com</t>
+  </si>
+  <si>
+    <t>skwxeelddu@yahoo.com</t>
+  </si>
+  <si>
+    <t>amvxzfbidw@example.com</t>
+  </si>
+  <si>
+    <t>evzryuyqgq@gmail.com</t>
+  </si>
+  <si>
+    <t>iqaymxwwvi@gmail.com</t>
+  </si>
+  <si>
+    <t>uqahdsuxro@example.com</t>
+  </si>
+  <si>
+    <t>qtadpgqdlt@gmail.com</t>
+  </si>
+  <si>
+    <t>rlukjdemkn@example.com</t>
+  </si>
+  <si>
+    <t>ewpjkzercj@example.com</t>
+  </si>
+  <si>
+    <t>onjvxqdnur@yahoo.com</t>
+  </si>
+  <si>
+    <t>jhzpvswupi@yahoo.com</t>
+  </si>
+  <si>
+    <t>lnmdqfwdmu@example.com</t>
+  </si>
+  <si>
+    <t>vwprsmdtqy@gmail.com</t>
+  </si>
+  <si>
+    <t>cuafbvhvsi@outlook.com</t>
+  </si>
+  <si>
+    <t>tpoeuiivew@gmail.com</t>
+  </si>
+  <si>
+    <t>mhyqvyncrm@outlook.com</t>
+  </si>
+  <si>
+    <t>mszgauopoi@gmail.com</t>
+  </si>
+  <si>
+    <t>stjailsljj@example.com</t>
+  </si>
+  <si>
+    <t>pudqoglhao@gmail.com</t>
+  </si>
+  <si>
+    <t>qlghploeut@outlook.com</t>
+  </si>
+  <si>
+    <t>wwlxmqhqbz@example.com</t>
+  </si>
+  <si>
+    <t>klexucqowj@example.com</t>
+  </si>
+  <si>
+    <t>nohabhbbbo@outlook.com</t>
+  </si>
+  <si>
+    <t>kglisjamhv@yahoo.com</t>
+  </si>
+  <si>
+    <t>kqvyeyfptl@outlook.com</t>
+  </si>
+  <si>
+    <t>bwhiyllvhq@gmail.com</t>
+  </si>
+  <si>
+    <t>nktnuxpgcf@example.com</t>
+  </si>
+  <si>
+    <t>fpzevfpbuu@example.com</t>
+  </si>
+  <si>
+    <t>zfcyzjsoun@gmail.com</t>
+  </si>
+  <si>
+    <t>cqgqdpkxhn@example.com</t>
+  </si>
+  <si>
+    <t>wnqkxtqfxb@outlook.com</t>
+  </si>
+  <si>
+    <t>nsqmgswoes@gmail.com</t>
+  </si>
+  <si>
+    <t>btjuotupaw@outlook.com</t>
+  </si>
+  <si>
+    <t>agkjotlmwy@yahoo.com</t>
+  </si>
+  <si>
+    <t>obynghuvmk@yahoo.com</t>
+  </si>
+  <si>
+    <t>hfefqspvfv@outlook.com</t>
+  </si>
+  <si>
+    <t>fhbbfxbaac@yahoo.com</t>
+  </si>
+  <si>
+    <t>chfoiivylk@example.com</t>
+  </si>
+  <si>
+    <t>htsqrxjynl@yahoo.com</t>
+  </si>
+  <si>
+    <t>wzkfrvfawr@example.com</t>
+  </si>
+  <si>
+    <t>vogfhnzpmb@example.com</t>
+  </si>
+  <si>
+    <t>bzfpvdoiys@yahoo.com</t>
+  </si>
+  <si>
+    <t>jllaybmilc@example.com</t>
+  </si>
+  <si>
+    <t>zbslrlbyfn@gmail.com</t>
+  </si>
+  <si>
+    <t>tqcsrdekaj@outlook.com</t>
+  </si>
+  <si>
+    <t>bushwsmdma@gmail.com</t>
+  </si>
+  <si>
+    <t>bjzghxkxbt@outlook.com</t>
+  </si>
+  <si>
+    <t>nlpopwmbvk@outlook.com</t>
+  </si>
+  <si>
+    <t>sonmaytqoq@example.com</t>
+  </si>
+  <si>
+    <t>puyjcitpjw@yahoo.com</t>
+  </si>
+  <si>
+    <t>aoaebldpzx@yahoo.com</t>
+  </si>
+  <si>
+    <t>spgzgojmzg@outlook.com</t>
+  </si>
+  <si>
+    <t>uxduwdhyfn@yahoo.com</t>
+  </si>
+  <si>
+    <t>lbdmxouxoj@yahoo.com</t>
+  </si>
+  <si>
+    <t>xocoolyusj@yahoo.com</t>
+  </si>
+  <si>
+    <t>bnnhnnkncu@outlook.com</t>
+  </si>
+  <si>
+    <t>kqmawnzdfv@yahoo.com</t>
+  </si>
+  <si>
+    <t>nepzcgldre@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1620,7 @@
   <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1277,6 +1667,12 @@
       <c r="C2">
         <v>19</v>
       </c>
+      <c r="D2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2">
+        <v>12345678</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1288,6 +1684,12 @@
       <c r="C3">
         <v>13</v>
       </c>
+      <c r="D3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3">
+        <v>12345678</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1299,6 +1701,12 @@
       <c r="C4">
         <v>15</v>
       </c>
+      <c r="D4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4">
+        <v>12345678</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1310,6 +1718,12 @@
       <c r="C5">
         <v>2</v>
       </c>
+      <c r="D5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5">
+        <v>12345678</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1321,6 +1735,12 @@
       <c r="C6">
         <v>15</v>
       </c>
+      <c r="D6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6">
+        <v>12345678</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1332,6 +1752,12 @@
       <c r="C7">
         <v>5</v>
       </c>
+      <c r="D7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7">
+        <v>12345678</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1343,6 +1769,12 @@
       <c r="C8">
         <v>7</v>
       </c>
+      <c r="D8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8">
+        <v>12345678</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1354,6 +1786,12 @@
       <c r="C9">
         <v>32</v>
       </c>
+      <c r="D9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9">
+        <v>12345678</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1365,6 +1803,12 @@
       <c r="C10">
         <v>4</v>
       </c>
+      <c r="D10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10">
+        <v>12345678</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1376,6 +1820,12 @@
       <c r="C11">
         <v>27</v>
       </c>
+      <c r="D11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11">
+        <v>12345678</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1387,6 +1837,12 @@
       <c r="C12">
         <v>5</v>
       </c>
+      <c r="D12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12">
+        <v>12345678</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1398,6 +1854,12 @@
       <c r="C13">
         <v>11</v>
       </c>
+      <c r="D13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13">
+        <v>12345678</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1409,6 +1871,12 @@
       <c r="C14">
         <v>9</v>
       </c>
+      <c r="D14" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14">
+        <v>12345678</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1420,6 +1888,12 @@
       <c r="C15">
         <v>17</v>
       </c>
+      <c r="D15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15">
+        <v>12345678</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1431,8 +1905,14 @@
       <c r="C16">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1922,14 @@
       <c r="C17">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1453,8 +1939,14 @@
       <c r="C18">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1464,8 +1956,14 @@
       <c r="C19">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1475,8 +1973,14 @@
       <c r="C20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1486,8 +1990,14 @@
       <c r="C21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E21">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1497,8 +2007,14 @@
       <c r="C22">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E22">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1508,8 +2024,14 @@
       <c r="C23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>286</v>
+      </c>
+      <c r="E23">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1519,8 +2041,14 @@
       <c r="C24">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>287</v>
+      </c>
+      <c r="E24">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1530,8 +2058,14 @@
       <c r="C25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1541,8 +2075,14 @@
       <c r="C26">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E26">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1552,8 +2092,14 @@
       <c r="C27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>290</v>
+      </c>
+      <c r="E27">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1563,8 +2109,14 @@
       <c r="C28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>291</v>
+      </c>
+      <c r="E28">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1574,8 +2126,14 @@
       <c r="C29">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>292</v>
+      </c>
+      <c r="E29">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1585,8 +2143,14 @@
       <c r="C30">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>293</v>
+      </c>
+      <c r="E30">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1596,8 +2160,14 @@
       <c r="C31">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>294</v>
+      </c>
+      <c r="E31">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1607,8 +2177,14 @@
       <c r="C32">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1618,8 +2194,14 @@
       <c r="C33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>296</v>
+      </c>
+      <c r="E33">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1629,8 +2211,14 @@
       <c r="C34">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>297</v>
+      </c>
+      <c r="E34">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1640,8 +2228,14 @@
       <c r="C35">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1651,8 +2245,14 @@
       <c r="C36">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1662,8 +2262,14 @@
       <c r="C37">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>300</v>
+      </c>
+      <c r="E37">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1673,8 +2279,14 @@
       <c r="C38">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>301</v>
+      </c>
+      <c r="E38">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1684,8 +2296,14 @@
       <c r="C39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>302</v>
+      </c>
+      <c r="E39">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1695,8 +2313,14 @@
       <c r="C40">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>303</v>
+      </c>
+      <c r="E40">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1706,8 +2330,14 @@
       <c r="C41">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>304</v>
+      </c>
+      <c r="E41">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1717,8 +2347,14 @@
       <c r="C42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>305</v>
+      </c>
+      <c r="E42">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1728,8 +2364,14 @@
       <c r="C43">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1739,8 +2381,14 @@
       <c r="C44">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>307</v>
+      </c>
+      <c r="E44">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1750,8 +2398,14 @@
       <c r="C45">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>308</v>
+      </c>
+      <c r="E45">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1761,8 +2415,14 @@
       <c r="C46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>309</v>
+      </c>
+      <c r="E46">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1772,8 +2432,14 @@
       <c r="C47">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>310</v>
+      </c>
+      <c r="E47">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1783,8 +2449,14 @@
       <c r="C48">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>311</v>
+      </c>
+      <c r="E48">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1794,8 +2466,14 @@
       <c r="C49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>312</v>
+      </c>
+      <c r="E49">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1805,8 +2483,14 @@
       <c r="C50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>313</v>
+      </c>
+      <c r="E50">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1816,8 +2500,14 @@
       <c r="C51">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>314</v>
+      </c>
+      <c r="E51">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1827,8 +2517,14 @@
       <c r="C52">
         <v>28</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>315</v>
+      </c>
+      <c r="E52">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1838,8 +2534,14 @@
       <c r="C53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>316</v>
+      </c>
+      <c r="E53">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1849,8 +2551,14 @@
       <c r="C54">
         <v>34</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>317</v>
+      </c>
+      <c r="E54">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1860,8 +2568,14 @@
       <c r="C55">
         <v>29</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>318</v>
+      </c>
+      <c r="E55">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -1871,8 +2585,14 @@
       <c r="C56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>319</v>
+      </c>
+      <c r="E56">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -1882,8 +2602,14 @@
       <c r="C57">
         <v>34</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>320</v>
+      </c>
+      <c r="E57">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -1893,8 +2619,14 @@
       <c r="C58">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>321</v>
+      </c>
+      <c r="E58">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -1904,8 +2636,14 @@
       <c r="C59">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>322</v>
+      </c>
+      <c r="E59">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -1915,8 +2653,14 @@
       <c r="C60">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>323</v>
+      </c>
+      <c r="E60">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -1926,8 +2670,14 @@
       <c r="C61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>324</v>
+      </c>
+      <c r="E61">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -1937,8 +2687,14 @@
       <c r="C62">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>325</v>
+      </c>
+      <c r="E62">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -1948,8 +2704,14 @@
       <c r="C63">
         <v>35</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>326</v>
+      </c>
+      <c r="E63">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -1959,8 +2721,14 @@
       <c r="C64">
         <v>22</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>327</v>
+      </c>
+      <c r="E64">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -1970,8 +2738,14 @@
       <c r="C65">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>328</v>
+      </c>
+      <c r="E65">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -1981,8 +2755,14 @@
       <c r="C66">
         <v>35</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>329</v>
+      </c>
+      <c r="E66">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -1992,8 +2772,14 @@
       <c r="C67">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>330</v>
+      </c>
+      <c r="E67">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -2003,8 +2789,14 @@
       <c r="C68">
         <v>33</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>331</v>
+      </c>
+      <c r="E68">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -2014,8 +2806,14 @@
       <c r="C69">
         <v>21</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>332</v>
+      </c>
+      <c r="E69">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -2025,8 +2823,14 @@
       <c r="C70">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>333</v>
+      </c>
+      <c r="E70">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -2036,8 +2840,14 @@
       <c r="C71">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>334</v>
+      </c>
+      <c r="E71">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -2047,8 +2857,14 @@
       <c r="C72">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>335</v>
+      </c>
+      <c r="E72">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -2058,8 +2874,14 @@
       <c r="C73">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>336</v>
+      </c>
+      <c r="E73">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -2069,8 +2891,14 @@
       <c r="C74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>337</v>
+      </c>
+      <c r="E74">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -2080,8 +2908,14 @@
       <c r="C75">
         <v>16</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>338</v>
+      </c>
+      <c r="E75">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -2091,8 +2925,14 @@
       <c r="C76">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>339</v>
+      </c>
+      <c r="E76">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -2102,8 +2942,14 @@
       <c r="C77">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>340</v>
+      </c>
+      <c r="E77">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -2113,8 +2959,14 @@
       <c r="C78">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>341</v>
+      </c>
+      <c r="E78">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -2124,8 +2976,14 @@
       <c r="C79">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>342</v>
+      </c>
+      <c r="E79">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -2135,8 +2993,14 @@
       <c r="C80">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>343</v>
+      </c>
+      <c r="E80">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -2146,8 +3010,14 @@
       <c r="C81">
         <v>36</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>344</v>
+      </c>
+      <c r="E81">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -2157,8 +3027,14 @@
       <c r="C82">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>345</v>
+      </c>
+      <c r="E82">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -2168,8 +3044,14 @@
       <c r="C83">
         <v>19</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>346</v>
+      </c>
+      <c r="E83">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -2179,8 +3061,14 @@
       <c r="C84">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>347</v>
+      </c>
+      <c r="E84">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -2190,8 +3078,14 @@
       <c r="C85">
         <v>23</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>348</v>
+      </c>
+      <c r="E85">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -2201,8 +3095,14 @@
       <c r="C86">
         <v>39</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>349</v>
+      </c>
+      <c r="E86">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -2212,8 +3112,14 @@
       <c r="C87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>350</v>
+      </c>
+      <c r="E87">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -2223,8 +3129,14 @@
       <c r="C88">
         <v>39</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>351</v>
+      </c>
+      <c r="E88">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -2234,8 +3146,14 @@
       <c r="C89">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>352</v>
+      </c>
+      <c r="E89">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -2245,8 +3163,14 @@
       <c r="C90">
         <v>21</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>353</v>
+      </c>
+      <c r="E90">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -2256,8 +3180,14 @@
       <c r="C91">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>354</v>
+      </c>
+      <c r="E91">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -2267,8 +3197,14 @@
       <c r="C92">
         <v>25</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>355</v>
+      </c>
+      <c r="E92">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -2278,8 +3214,14 @@
       <c r="C93">
         <v>17</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>356</v>
+      </c>
+      <c r="E93">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -2289,8 +3231,14 @@
       <c r="C94">
         <v>31</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>357</v>
+      </c>
+      <c r="E94">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -2300,8 +3248,14 @@
       <c r="C95">
         <v>40</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>358</v>
+      </c>
+      <c r="E95">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -2311,8 +3265,14 @@
       <c r="C96">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>359</v>
+      </c>
+      <c r="E96">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -2322,8 +3282,14 @@
       <c r="C97">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>360</v>
+      </c>
+      <c r="E97">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -2333,8 +3299,14 @@
       <c r="C98">
         <v>19</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>361</v>
+      </c>
+      <c r="E98">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -2344,8 +3316,14 @@
       <c r="C99">
         <v>23</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>362</v>
+      </c>
+      <c r="E99">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -2355,8 +3333,14 @@
       <c r="C100">
         <v>21</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>363</v>
+      </c>
+      <c r="E100">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -2366,8 +3350,14 @@
       <c r="C101">
         <v>24</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>364</v>
+      </c>
+      <c r="E101">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -2377,8 +3367,14 @@
       <c r="C102">
         <v>16</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>365</v>
+      </c>
+      <c r="E102">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -2388,8 +3384,14 @@
       <c r="C103">
         <v>36</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>366</v>
+      </c>
+      <c r="E103">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -2399,8 +3401,14 @@
       <c r="C104">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>367</v>
+      </c>
+      <c r="E104">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -2410,8 +3418,14 @@
       <c r="C105">
         <v>22</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>368</v>
+      </c>
+      <c r="E105">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -2421,8 +3435,14 @@
       <c r="C106">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>369</v>
+      </c>
+      <c r="E106">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -2432,8 +3452,14 @@
       <c r="C107">
         <v>17</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>370</v>
+      </c>
+      <c r="E107">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -2443,8 +3469,14 @@
       <c r="C108">
         <v>40</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
+        <v>371</v>
+      </c>
+      <c r="E108">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -2454,8 +3486,14 @@
       <c r="C109">
         <v>22</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>372</v>
+      </c>
+      <c r="E109">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -2465,8 +3503,14 @@
       <c r="C110">
         <v>26</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>373</v>
+      </c>
+      <c r="E110">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -2476,8 +3520,14 @@
       <c r="C111">
         <v>17</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>374</v>
+      </c>
+      <c r="E111">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -2487,8 +3537,14 @@
       <c r="C112">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>375</v>
+      </c>
+      <c r="E112">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -2498,8 +3554,14 @@
       <c r="C113">
         <v>17</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>376</v>
+      </c>
+      <c r="E113">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -2509,8 +3571,14 @@
       <c r="C114">
         <v>34</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>377</v>
+      </c>
+      <c r="E114">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -2520,8 +3588,14 @@
       <c r="C115">
         <v>29</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>378</v>
+      </c>
+      <c r="E115">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -2531,8 +3605,14 @@
       <c r="C116">
         <v>39</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>379</v>
+      </c>
+      <c r="E116">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -2542,8 +3622,14 @@
       <c r="C117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>380</v>
+      </c>
+      <c r="E117">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -2553,8 +3639,14 @@
       <c r="C118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>381</v>
+      </c>
+      <c r="E118">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -2564,8 +3656,14 @@
       <c r="C119">
         <v>33</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>382</v>
+      </c>
+      <c r="E119">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -2575,8 +3673,14 @@
       <c r="C120">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>383</v>
+      </c>
+      <c r="E120">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -2586,8 +3690,14 @@
       <c r="C121">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>384</v>
+      </c>
+      <c r="E121">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -2597,8 +3707,14 @@
       <c r="C122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>385</v>
+      </c>
+      <c r="E122">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -2608,8 +3724,14 @@
       <c r="C123">
         <v>35</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>386</v>
+      </c>
+      <c r="E123">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -2619,8 +3741,14 @@
       <c r="C124">
         <v>26</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>387</v>
+      </c>
+      <c r="E124">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -2630,8 +3758,14 @@
       <c r="C125">
         <v>19</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>388</v>
+      </c>
+      <c r="E125">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -2641,8 +3775,14 @@
       <c r="C126">
         <v>24</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>389</v>
+      </c>
+      <c r="E126">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -2652,8 +3792,14 @@
       <c r="C127">
         <v>38</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>390</v>
+      </c>
+      <c r="E127">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -2663,8 +3809,14 @@
       <c r="C128">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>391</v>
+      </c>
+      <c r="E128">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -2674,8 +3826,14 @@
       <c r="C129">
         <v>39</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>392</v>
+      </c>
+      <c r="E129">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -2685,8 +3843,14 @@
       <c r="C130">
         <v>36</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>393</v>
+      </c>
+      <c r="E130">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -2695,6 +3859,12 @@
       </c>
       <c r="C131">
         <v>35</v>
+      </c>
+      <c r="D131" t="s">
+        <v>394</v>
+      </c>
+      <c r="E131">
+        <v>12345678</v>
       </c>
     </row>
   </sheetData>
